--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1289860.012095783</v>
+        <v>1234908.122811687</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013171</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8137241.444459122</v>
+        <v>8137241.444459121</v>
       </c>
     </row>
     <row r="11">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-1.681334333902334e-12</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>27.05677499767155</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.2153587443418</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>90.22595344863001</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>22.70042032133642</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.00010435294844</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>73.35340349906456</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>149.038977075427</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>60.57545545242611</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,28 +1685,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.329915919761908</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>133.8682340509143</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.00010435294843</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>73.35340349906438</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>326.2189840146596</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>197.4493868565983</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>27.57432817881596</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>27.67799469514001</v>
       </c>
       <c r="U18" t="n">
         <v>237.1773944157285</v>
@@ -1991,7 +1991,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>52.42857711587115</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>73.35340349906456</v>
       </c>
       <c r="V19" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>277.1121512447742</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>240.4660086744108</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350707</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886887</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>153.1172972319382</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.447379564492</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>7.226885210985788</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.376832222376417</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553588</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706155</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>69.04748335884439</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>39.91019239382934</v>
       </c>
       <c r="W23" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>69.23457974714742</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -2414,10 +2414,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350707</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886886</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>157.7090095864117</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>7.226885210985732</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>71.75483415574615</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>173.0488217048331</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.6556365850381</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -2651,10 +2651,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>108.8520707965534</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>158.6107100818744</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>73.35340349906451</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>198.242790496966</v>
       </c>
       <c r="F29" t="n">
-        <v>107.9039491960626</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -2885,13 +2885,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.70042032133642</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>78.76197508490935</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.920671635353</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>8.916258666856924</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
@@ -3043,13 +3043,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>279.0863909008112</v>
+        <v>335.9895161794154</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>164.6129064773716</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -3164,16 +3164,16 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>139.8851963399922</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>8.916258666856903</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.35340349906451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8.827923377710025</v>
+        <v>279.6136344149378</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>139.8851963399922</v>
       </c>
       <c r="V36" t="n">
-        <v>175.0374554513482</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.4825785166958</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>73.35340349906471</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
-        <v>78.64444720260812</v>
+        <v>188.9625998440371</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -3599,10 +3599,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>22.70042032133687</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>187.1540356113331</v>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
-        <v>50.00010435294862</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>134.7549293585491</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>96.84726682554681</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,13 +3821,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>90.75898579008562</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>180.4568871413931</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>8.916258666856974</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>52.42857711587138</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>57.00384941196982</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>181.0247142623411</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,16 +4061,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>91.57642121287662</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>183.9666808930475</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.53519509961426</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4585,34 +4585,34 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1.698317508992257e-12</v>
       </c>
     </row>
     <row r="6">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1413.548593210148</v>
+        <v>795.3295488354476</v>
       </c>
       <c r="C11" t="n">
-        <v>1413.548593210148</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="D11" t="n">
-        <v>1413.548593210148</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193747</v>
       </c>
       <c r="L11" t="n">
         <v>525.5283691389718</v>
@@ -5062,31 +5062,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T11" t="n">
-        <v>1413.548593210148</v>
+        <v>1514.505007626963</v>
       </c>
       <c r="U11" t="n">
-        <v>1413.548593210148</v>
+        <v>1514.505007626963</v>
       </c>
       <c r="V11" t="n">
-        <v>1413.548593210148</v>
+        <v>1514.505007626963</v>
       </c>
       <c r="W11" t="n">
-        <v>1413.548593210148</v>
+        <v>1173.195448206996</v>
       </c>
       <c r="X11" t="n">
-        <v>1413.548593210148</v>
+        <v>1173.195448206996</v>
       </c>
       <c r="Y11" t="n">
-        <v>1413.548593210148</v>
+        <v>1173.195448206996</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1069.118384851047</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C12" t="n">
-        <v>879.7061105840106</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D12" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025865</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K12" t="n">
-        <v>112.3287381944629</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L12" t="n">
-        <v>395.2338702498411</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M12" t="n">
-        <v>770.1254798029025</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N12" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O12" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P12" t="n">
-        <v>1715.732642722257</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S12" t="n">
-        <v>1715.732642722257</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T12" t="n">
-        <v>1715.732642722257</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U12" t="n">
-        <v>1715.732642722257</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V12" t="n">
-        <v>1715.732642722257</v>
+        <v>839.9992362879177</v>
       </c>
       <c r="W12" t="n">
-        <v>1692.802925225958</v>
+        <v>570.600667018209</v>
       </c>
       <c r="X12" t="n">
-        <v>1473.294930842654</v>
+        <v>351.0926726349054</v>
       </c>
       <c r="Y12" t="n">
-        <v>1247.654237777982</v>
+        <v>125.451979570233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514568</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
         <v>315.4306320098955</v>
@@ -5220,31 +5220,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809699</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651429</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S13" t="n">
-        <v>84.81980876651429</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T13" t="n">
-        <v>84.81980876651429</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U13" t="n">
-        <v>84.81980876651429</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>557.3318417915689</v>
+        <v>1013.745749806111</v>
       </c>
       <c r="C14" t="n">
-        <v>557.3318417915689</v>
+        <v>1013.745749806111</v>
       </c>
       <c r="D14" t="n">
-        <v>557.3318417915689</v>
+        <v>1013.745749806111</v>
       </c>
       <c r="E14" t="n">
-        <v>557.3318417915689</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F14" t="n">
-        <v>557.3318417915689</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K14" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193752</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
@@ -5302,28 +5302,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T14" t="n">
-        <v>1195.201146295158</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U14" t="n">
-        <v>942.6401640759913</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V14" t="n">
-        <v>618.5191705313932</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W14" t="n">
-        <v>557.3318417915689</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="X14" t="n">
-        <v>557.3318417915689</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="Y14" t="n">
-        <v>557.3318417915689</v>
+        <v>1391.61164917766</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.31465285444516</v>
+        <v>1030.775619407728</v>
       </c>
       <c r="C15" t="n">
-        <v>34.31465285444516</v>
+        <v>841.363345140692</v>
       </c>
       <c r="D15" t="n">
-        <v>34.31465285444516</v>
+        <v>680.5832289017237</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H15" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I15" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025866</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889813</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498413</v>
       </c>
       <c r="M15" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N15" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O15" t="n">
         <v>1486.492278349808</v>
@@ -5381,28 +5381,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007117</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T15" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="U15" t="n">
-        <v>995.3051791025987</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062328</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="W15" t="n">
-        <v>482.8268917365241</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="X15" t="n">
-        <v>263.3188973532204</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="Y15" t="n">
-        <v>37.6782042885481</v>
+        <v>1209.311472334663</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M16" t="n">
         <v>180.6961586662943</v>
@@ -5451,37 +5451,37 @@
         <v>262.1720788316462</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809699</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651429</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S16" t="n">
-        <v>84.81980876651429</v>
+        <v>108.4089998231971</v>
       </c>
       <c r="T16" t="n">
-        <v>84.81980876651429</v>
+        <v>108.4089998231971</v>
       </c>
       <c r="U16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.732642722257</v>
+        <v>996.5571839307423</v>
       </c>
       <c r="C17" t="n">
-        <v>1715.732642722257</v>
+        <v>996.5571839307423</v>
       </c>
       <c r="D17" t="n">
-        <v>1715.732642722257</v>
+        <v>655.3731842921288</v>
       </c>
       <c r="E17" t="n">
-        <v>1386.218517454924</v>
+        <v>655.3731842921288</v>
       </c>
       <c r="F17" t="n">
-        <v>978.9465481215775</v>
+        <v>655.3731842921288</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3318417915689</v>
+        <v>233.7584779621202</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
         <v>525.5283691389718</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157782</v>
@@ -5536,31 +5536,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S17" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T17" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722257</v>
+        <v>1374.423083302291</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722257</v>
+        <v>1374.423083302291</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.732642722257</v>
+        <v>1374.423083302291</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>263.3188973532195</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C18" t="n">
-        <v>263.3188973532195</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D18" t="n">
-        <v>263.3188973532195</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E18" t="n">
-        <v>263.3188973532195</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F18" t="n">
-        <v>263.3188973532195</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>54.40930111025865</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L18" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M18" t="n">
-        <v>679.5863020207051</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O18" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q18" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
         <v>1627.958867440572</v>
@@ -5624,22 +5624,22 @@
         <v>1448.884598007116</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775051</v>
+        <v>1420.927027607985</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025978</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062319</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365232</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X18" t="n">
-        <v>263.3188973532195</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y18" t="n">
-        <v>263.3188973532195</v>
+        <v>223.7269271214814</v>
       </c>
     </row>
     <row r="19">
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C19" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514568</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
         <v>315.4306320098955</v>
@@ -5700,25 +5700,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S19" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="T19" t="n">
-        <v>334.857675380022</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U19" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V19" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W19" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X19" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.27281155734531</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.31465285444515</v>
+        <v>1077.024622706678</v>
       </c>
       <c r="C20" t="n">
-        <v>34.31465285444515</v>
+        <v>1077.024622706678</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31465285444515</v>
+        <v>735.8406230680641</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444515</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444515</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193746</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292773</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.632785841148</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P20" t="n">
         <v>1650.639799716935</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1413.548593210148</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1195.201146295157</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>942.6401640759904</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V20" t="n">
-        <v>618.5191705313923</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W20" t="n">
-        <v>277.2096111114258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X20" t="n">
-        <v>277.2096111114258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.31465285444515</v>
+        <v>1077.024622706678</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1069.118384851047</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="C21" t="n">
-        <v>879.7061105840106</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="D21" t="n">
-        <v>718.9259943450423</v>
+        <v>357.3468903097908</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3627904664568</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K21" t="n">
         <v>112.3287381944631</v>
       </c>
       <c r="L21" t="n">
-        <v>395.2338702498413</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M21" t="n">
         <v>770.1254798029028</v>
@@ -5849,34 +5849,34 @@
         <v>1486.492278349808</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S21" t="n">
-        <v>1473.294930842654</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T21" t="n">
-        <v>1473.294930842654</v>
+        <v>1501.726349490192</v>
       </c>
       <c r="U21" t="n">
-        <v>1473.294930842654</v>
+        <v>1274.001723667473</v>
       </c>
       <c r="V21" t="n">
-        <v>1473.294930842654</v>
+        <v>1030.922005571107</v>
       </c>
       <c r="W21" t="n">
-        <v>1473.294930842654</v>
+        <v>761.5234363013983</v>
       </c>
       <c r="X21" t="n">
-        <v>1473.294930842654</v>
+        <v>761.5234363013983</v>
       </c>
       <c r="Y21" t="n">
-        <v>1247.654237777982</v>
+        <v>535.8827432367259</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>260.9755581809698</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C22" t="n">
-        <v>260.9755581809698</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D22" t="n">
-        <v>260.9755581809698</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E22" t="n">
-        <v>260.9755581809698</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F22" t="n">
-        <v>260.9755581809698</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G22" t="n">
-        <v>260.9755581809698</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H22" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I22" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J22" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514565</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306431</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N22" t="n">
-        <v>262.1720788316461</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098954</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800218</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.9755581809698</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R22" t="n">
-        <v>260.9755581809698</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S22" t="n">
-        <v>260.9755581809698</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T22" t="n">
-        <v>260.9755581809698</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U22" t="n">
-        <v>260.9755581809698</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V22" t="n">
-        <v>260.9755581809698</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W22" t="n">
-        <v>260.9755581809698</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="X22" t="n">
-        <v>260.9755581809698</v>
+        <v>41.61453690594595</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9755581809698</v>
+        <v>41.61453690594595</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>104.0595855401465</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C23" t="n">
-        <v>104.0595855401465</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D23" t="n">
-        <v>104.0595855401465</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E23" t="n">
-        <v>104.0595855401465</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F23" t="n">
-        <v>104.0595855401465</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G23" t="n">
-        <v>104.0595855401465</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
-        <v>104.0595855401465</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193753</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
@@ -6010,31 +6010,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1519.054059427091</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T23" t="n">
-        <v>1519.054059427091</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U23" t="n">
-        <v>1519.054059427091</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V23" t="n">
-        <v>1194.933065882493</v>
+        <v>1204.510887937767</v>
       </c>
       <c r="W23" t="n">
-        <v>853.6235064625264</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="X23" t="n">
-        <v>490.2066233365606</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="Y23" t="n">
-        <v>104.0595855401465</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1069.118384851047</v>
+        <v>867.9669970985512</v>
       </c>
       <c r="C24" t="n">
-        <v>879.7061105840106</v>
+        <v>678.5547228315149</v>
       </c>
       <c r="D24" t="n">
-        <v>718.9259943450423</v>
+        <v>517.7746065925467</v>
       </c>
       <c r="E24" t="n">
-        <v>545.3627904664568</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F24" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>34.31465285444515</v>
+        <v>112.3287381944634</v>
       </c>
       <c r="L24" t="n">
-        <v>317.2197849098233</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M24" t="n">
-        <v>692.1113944628848</v>
+        <v>770.125479802903</v>
       </c>
       <c r="N24" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O24" t="n">
-        <v>1408.47819300979</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P24" t="n">
-        <v>1637.71855738224</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
         <v>1627.958867440572</v>
       </c>
       <c r="S24" t="n">
-        <v>1627.958867440572</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T24" t="n">
-        <v>1627.958867440572</v>
+        <v>1289.582568121852</v>
       </c>
       <c r="U24" t="n">
-        <v>1627.958867440572</v>
+        <v>1289.582568121852</v>
       </c>
       <c r="V24" t="n">
-        <v>1627.958867440572</v>
+        <v>1046.502850025486</v>
       </c>
       <c r="W24" t="n">
-        <v>1358.560298170863</v>
+        <v>1046.502850025486</v>
       </c>
       <c r="X24" t="n">
-        <v>1139.052303787559</v>
+        <v>1046.502850025486</v>
       </c>
       <c r="Y24" t="n">
-        <v>1139.052303787559</v>
+        <v>1046.502850025486</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722257</v>
+        <v>41.6145369059459</v>
       </c>
       <c r="C25" t="n">
-        <v>1715.732642722257</v>
+        <v>41.6145369059459</v>
       </c>
       <c r="D25" t="n">
-        <v>1715.732642722257</v>
+        <v>41.6145369059459</v>
       </c>
       <c r="E25" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1554.032648749404</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172878</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722257</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722257</v>
+        <v>41.6145369059459</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722257</v>
+        <v>41.6145369059459</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722257</v>
+        <v>41.6145369059459</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>441.5866221877922</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="C26" t="n">
-        <v>441.5866221877922</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="D26" t="n">
-        <v>441.5866221877922</v>
+        <v>903.6402139494865</v>
       </c>
       <c r="E26" t="n">
-        <v>441.5866221877922</v>
+        <v>528.4089896448035</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444515</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
         <v>79.26440887602982</v>
@@ -6247,31 +6247,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1610.227176505314</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U26" t="n">
-        <v>1357.666194286148</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V26" t="n">
-        <v>1182.869404685307</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="W26" t="n">
-        <v>1182.869404685307</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="X26" t="n">
-        <v>819.452521559341</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="Y26" t="n">
-        <v>819.452521559341</v>
+        <v>1244.8242135881</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1069.118384851047</v>
+        <v>533.6236769809974</v>
       </c>
       <c r="C27" t="n">
-        <v>879.7061105840106</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="D27" t="n">
-        <v>718.9259943450423</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="E27" t="n">
-        <v>545.3627904664568</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F27" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>34.31465285444515</v>
+        <v>112.3287381944634</v>
       </c>
       <c r="L27" t="n">
-        <v>317.2197849098233</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M27" t="n">
-        <v>679.5863020207051</v>
+        <v>770.125479802903</v>
       </c>
       <c r="N27" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T27" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U27" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="V27" t="n">
-        <v>1448.884598007116</v>
+        <v>1426.706786625617</v>
       </c>
       <c r="W27" t="n">
-        <v>1448.884598007116</v>
+        <v>1157.308217355908</v>
       </c>
       <c r="X27" t="n">
-        <v>1229.376603623813</v>
+        <v>937.8002229726048</v>
       </c>
       <c r="Y27" t="n">
-        <v>1229.376603623813</v>
+        <v>712.1595299079324</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444515</v>
+        <v>194.527491320985</v>
       </c>
       <c r="G28" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
         <v>42.23041924514568</v>
@@ -6411,25 +6411,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S28" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1463.171660503092</v>
+        <v>588.3028224283288</v>
       </c>
       <c r="C29" t="n">
-        <v>1463.171660503092</v>
+        <v>234.5598957806734</v>
       </c>
       <c r="D29" t="n">
-        <v>1463.171660503092</v>
+        <v>234.5598957806734</v>
       </c>
       <c r="E29" t="n">
-        <v>1087.940436198408</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F29" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G29" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H29" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I29" t="n">
         <v>34.31465285444515</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K29" t="n">
         <v>253.8975067193749</v>
@@ -6472,7 +6472,7 @@
         <v>525.5283691389718</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157782</v>
@@ -6484,31 +6484,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="U29" t="n">
-        <v>1463.171660503092</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="V29" t="n">
-        <v>1463.171660503092</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="W29" t="n">
-        <v>1463.171660503092</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="X29" t="n">
-        <v>1463.171660503092</v>
+        <v>1352.315759596292</v>
       </c>
       <c r="Y29" t="n">
-        <v>1463.171660503092</v>
+        <v>966.1687217998776</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1069.118384851047</v>
+        <v>529.0856892547548</v>
       </c>
       <c r="C30" t="n">
-        <v>879.7061105840106</v>
+        <v>529.0856892547548</v>
       </c>
       <c r="D30" t="n">
-        <v>718.9259943450423</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3627904664568</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I30" t="n">
         <v>34.31465285444515</v>
@@ -6545,16 +6545,16 @@
         <v>34.31465285444515</v>
       </c>
       <c r="K30" t="n">
-        <v>195.4144734331678</v>
+        <v>112.3287381944629</v>
       </c>
       <c r="L30" t="n">
-        <v>478.319605488546</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M30" t="n">
-        <v>853.2112150416074</v>
+        <v>770.1254798029025</v>
       </c>
       <c r="N30" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O30" t="n">
         <v>1486.492278349808</v>
@@ -6566,28 +6566,28 @@
         <v>1715.732642722257</v>
       </c>
       <c r="R30" t="n">
-        <v>1692.802925225958</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S30" t="n">
-        <v>1692.802925225958</v>
+        <v>1636.17509213144</v>
       </c>
       <c r="T30" t="n">
-        <v>1692.802925225958</v>
+        <v>1422.168798899374</v>
       </c>
       <c r="U30" t="n">
-        <v>1692.802925225958</v>
+        <v>1422.168798899374</v>
       </c>
       <c r="V30" t="n">
-        <v>1692.802925225958</v>
+        <v>1422.168798899374</v>
       </c>
       <c r="W30" t="n">
-        <v>1692.802925225958</v>
+        <v>1152.770229629666</v>
       </c>
       <c r="X30" t="n">
-        <v>1473.294930842654</v>
+        <v>933.2622352463623</v>
       </c>
       <c r="Y30" t="n">
-        <v>1247.654237777982</v>
+        <v>707.6215421816898</v>
       </c>
     </row>
     <row r="31">
@@ -6645,28 +6645,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R31" t="n">
-        <v>334.857675380022</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="S31" t="n">
-        <v>334.857675380022</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="T31" t="n">
-        <v>334.857675380022</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="U31" t="n">
-        <v>43.32097474015922</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="V31" t="n">
-        <v>43.32097474015922</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="W31" t="n">
-        <v>43.32097474015922</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444515</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444515</v>
+        <v>213.7256838291604</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1286.106182960717</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="C32" t="n">
-        <v>1286.106182960717</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="D32" t="n">
-        <v>1286.106182960717</v>
+        <v>1156.201196168652</v>
       </c>
       <c r="E32" t="n">
-        <v>910.8749586560335</v>
+        <v>780.9699718639694</v>
       </c>
       <c r="F32" t="n">
-        <v>503.6029893226865</v>
+        <v>373.6980025306224</v>
       </c>
       <c r="G32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I32" t="n">
         <v>34.31465285444515</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602939</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193746</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292774</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157782</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P32" t="n">
         <v>1650.639799716935</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="T32" t="n">
-        <v>1610.227176505315</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U32" t="n">
-        <v>1610.227176505315</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="V32" t="n">
-        <v>1286.106182960717</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="W32" t="n">
-        <v>1286.106182960717</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="X32" t="n">
-        <v>1286.106182960717</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="Y32" t="n">
-        <v>1286.106182960717</v>
+        <v>1497.385195807266</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>830.7017587834432</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C33" t="n">
-        <v>641.2894845164069</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D33" t="n">
-        <v>480.5093682774386</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E33" t="n">
-        <v>314.2337051689825</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F33" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G33" t="n">
-        <v>153.8059888862266</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H33" t="n">
         <v>34.31465285444515</v>
@@ -6779,16 +6779,16 @@
         <v>34.31465285444515</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889813</v>
+        <v>112.3287381944629</v>
       </c>
       <c r="L33" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M33" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029025</v>
       </c>
       <c r="N33" t="n">
         <v>1173.359244302914</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722257</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007116</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056736</v>
       </c>
       <c r="U33" t="n">
-        <v>1234.878304775051</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V33" t="n">
-        <v>1234.878304775051</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W33" t="n">
-        <v>1234.878304775051</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X33" t="n">
-        <v>1234.878304775051</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y33" t="n">
-        <v>1009.237611710378</v>
+        <v>223.7269271214814</v>
       </c>
     </row>
     <row r="34">
@@ -6885,22 +6885,22 @@
         <v>334.857675380022</v>
       </c>
       <c r="S34" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T34" t="n">
-        <v>108.4089998231972</v>
+        <v>325.8513534943079</v>
       </c>
       <c r="U34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="V34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="W34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="X34" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="Y34" t="n">
         <v>34.31465285444515</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.9746738230198</v>
+        <v>724.0246367483354</v>
       </c>
       <c r="C35" t="n">
-        <v>43.23174717536438</v>
+        <v>724.0246367483354</v>
       </c>
       <c r="D35" t="n">
-        <v>43.23174717536438</v>
+        <v>724.0246367483354</v>
       </c>
       <c r="E35" t="n">
-        <v>34.31465285444516</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602982</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193753</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389723</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P35" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R35" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S35" t="n">
-        <v>1413.548593210149</v>
+        <v>1519.054059427091</v>
       </c>
       <c r="T35" t="n">
-        <v>1413.548593210149</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U35" t="n">
-        <v>1160.987610990983</v>
+        <v>1048.145630292933</v>
       </c>
       <c r="V35" t="n">
-        <v>1160.987610990983</v>
+        <v>724.0246367483354</v>
       </c>
       <c r="W35" t="n">
-        <v>1160.987610990983</v>
+        <v>724.0246367483354</v>
       </c>
       <c r="X35" t="n">
-        <v>1160.987610990983</v>
+        <v>724.0246367483354</v>
       </c>
       <c r="Y35" t="n">
-        <v>774.8405731945686</v>
+        <v>724.0246367483354</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>558.0702472390352</v>
+        <v>223.7269271214814</v>
       </c>
       <c r="C36" t="n">
-        <v>368.6579729719989</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D36" t="n">
-        <v>207.8778567330307</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K36" t="n">
-        <v>112.3287381944634</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L36" t="n">
-        <v>395.2338702498415</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M36" t="n">
-        <v>770.125479802903</v>
+        <v>853.2112150416074</v>
       </c>
       <c r="N36" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.492278349808</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="S36" t="n">
-        <v>1627.958867440572</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="T36" t="n">
-        <v>1627.958867440572</v>
+        <v>1322.652080056736</v>
       </c>
       <c r="U36" t="n">
-        <v>1627.958867440572</v>
+        <v>1181.353901935532</v>
       </c>
       <c r="V36" t="n">
-        <v>1451.153356883655</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W36" t="n">
-        <v>1181.754787613946</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X36" t="n">
-        <v>962.2467932306427</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y36" t="n">
-        <v>736.6061001659702</v>
+        <v>223.7269271214814</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>1489.283967165433</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y37" t="n">
-        <v>1415.189620196681</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>863.2013285178008</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="C38" t="n">
-        <v>863.2013285178008</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2013285178008</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H38" t="n">
         <v>34.31465285444516</v>
@@ -7174,19 +7174,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193753</v>
       </c>
       <c r="L38" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292782</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
         <v>1460.632785841149</v>
@@ -7201,25 +7201,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S38" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T38" t="n">
-        <v>1195.201146295157</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U38" t="n">
-        <v>942.6401640759908</v>
+        <v>1357.666194286149</v>
       </c>
       <c r="V38" t="n">
-        <v>863.2013285178008</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="W38" t="n">
-        <v>863.2013285178008</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="X38" t="n">
-        <v>863.2013285178008</v>
+        <v>1166.794881312374</v>
       </c>
       <c r="Y38" t="n">
-        <v>863.2013285178008</v>
+        <v>1166.794881312374</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1069.118384851047</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="C39" t="n">
-        <v>879.7061105840106</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
         <v>112.3287381944634</v>
@@ -7277,28 +7277,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T39" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U39" t="n">
-        <v>1715.732642722258</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V39" t="n">
-        <v>1715.732642722258</v>
+        <v>931.2997304396879</v>
       </c>
       <c r="W39" t="n">
-        <v>1692.802925225958</v>
+        <v>931.2997304396879</v>
       </c>
       <c r="X39" t="n">
-        <v>1473.294930842654</v>
+        <v>711.7917360563843</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.654237777982</v>
+        <v>522.7472556408962</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q40" t="n">
-        <v>1641.850525523206</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>1465.69477610875</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="S40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="T40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="U40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="V40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="X40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655663</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C41" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D41" t="n">
-        <v>1374.548643083644</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E41" t="n">
-        <v>999.3174187789615</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F41" t="n">
-        <v>592.0454494456145</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G41" t="n">
-        <v>170.4307431156059</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
         <v>34.31465285444516</v>
@@ -7411,19 +7411,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K41" t="n">
         <v>253.8975067193749</v>
       </c>
       <c r="L41" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M41" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N41" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O41" t="n">
         <v>1460.632785841149</v>
@@ -7435,28 +7435,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1315.723071164142</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722258</v>
+        <v>1063.162088944975</v>
       </c>
       <c r="V41" t="n">
-        <v>1715.732642722258</v>
+        <v>739.0410954003776</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.732642722258</v>
+        <v>397.731535980411</v>
       </c>
       <c r="X41" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y41" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="42">
@@ -7466,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>34.31465285444516</v>
+        <v>397.2901310000669</v>
       </c>
       <c r="C42" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D42" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E42" t="n">
         <v>34.31465285444516</v>
@@ -7490,25 +7490,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>54.40930111025865</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L42" t="n">
-        <v>337.3144331656368</v>
+        <v>304.6946924676434</v>
       </c>
       <c r="M42" t="n">
-        <v>712.2060427186982</v>
+        <v>679.5863020207049</v>
       </c>
       <c r="N42" t="n">
-        <v>1115.439807218709</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O42" t="n">
-        <v>1428.572841265603</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P42" t="n">
-        <v>1657.813205638053</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7517,25 +7517,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1624.056899499949</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T42" t="n">
-        <v>1410.050606267884</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U42" t="n">
-        <v>1170.477480595431</v>
+        <v>1533.452958741052</v>
       </c>
       <c r="V42" t="n">
-        <v>927.3977624990649</v>
+        <v>1290.373240644687</v>
       </c>
       <c r="W42" t="n">
-        <v>657.9991932293563</v>
+        <v>1020.974671374978</v>
       </c>
       <c r="X42" t="n">
-        <v>438.4911988460526</v>
+        <v>801.4666769916744</v>
       </c>
       <c r="Y42" t="n">
-        <v>212.8505057813803</v>
+        <v>575.825983927002</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="C43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="D43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="E43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="F43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="G43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="H43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="I43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U43" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="V43" t="n">
-        <v>1468.147778899581</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="X43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
       <c r="Y43" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015927</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>388.0575795021006</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="C44" t="n">
-        <v>34.31465285444516</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="D44" t="n">
-        <v>34.31465285444516</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7648,19 +7648,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193752</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N44" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O44" t="n">
         <v>1460.632785841149</v>
@@ -7675,25 +7675,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S44" t="n">
-        <v>1413.548593210149</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T44" t="n">
-        <v>1195.201146295157</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="U44" t="n">
-        <v>1137.62150042448</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="V44" t="n">
-        <v>1137.62150042448</v>
+        <v>1391.879729590323</v>
       </c>
       <c r="W44" t="n">
-        <v>1137.62150042448</v>
+        <v>1209.026482860686</v>
       </c>
       <c r="X44" t="n">
-        <v>774.2046172985147</v>
+        <v>1209.026482860686</v>
       </c>
       <c r="Y44" t="n">
-        <v>388.0575795021006</v>
+        <v>1209.026482860686</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>867.9669970985512</v>
+        <v>316.2283626900437</v>
       </c>
       <c r="C45" t="n">
-        <v>678.5547228315149</v>
+        <v>126.8160884230074</v>
       </c>
       <c r="D45" t="n">
-        <v>517.7746065925467</v>
+        <v>126.8160884230074</v>
       </c>
       <c r="E45" t="n">
-        <v>344.2114027139611</v>
+        <v>126.8160884230074</v>
       </c>
       <c r="F45" t="n">
-        <v>183.7836864312052</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G45" t="n">
         <v>34.31465285444516</v>
@@ -7727,52 +7727,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
-        <v>54.40930111025865</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L45" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M45" t="n">
-        <v>712.2060427186982</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N45" t="n">
-        <v>1115.439807218709</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O45" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T45" t="n">
-        <v>1501.726349490192</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="U45" t="n">
-        <v>1501.726349490192</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="V45" t="n">
-        <v>1501.726349490192</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="W45" t="n">
-        <v>1232.327780220484</v>
+        <v>939.9129030649548</v>
       </c>
       <c r="X45" t="n">
-        <v>1046.502850025486</v>
+        <v>720.4049086816511</v>
       </c>
       <c r="Y45" t="n">
-        <v>1046.502850025486</v>
+        <v>494.7642156169788</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="C46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="D46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="E46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="F46" t="n">
-        <v>111.6229307328434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>111.6229307328434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>111.6229307328434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
         <v>34.31465285444516</v>
@@ -7809,16 +7809,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.23041924514568</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L46" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M46" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N46" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O46" t="n">
         <v>315.4306320098955</v>
@@ -7830,28 +7830,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R46" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="S46" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="T46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="U46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="V46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="W46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="X46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="Y46" t="n">
-        <v>111.6229307328434</v>
+        <v>158.7019259655664</v>
       </c>
     </row>
   </sheetData>
@@ -8224,10 +8224,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M5" t="n">
-        <v>281.0224045372727</v>
+        <v>281.0224045372731</v>
       </c>
       <c r="N5" t="n">
-        <v>279.8839375878409</v>
+        <v>279.8839375878413</v>
       </c>
       <c r="O5" t="n">
         <v>246.758517458259</v>
@@ -8297,22 +8297,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>168.166555548718</v>
+        <v>168.1665555487184</v>
       </c>
       <c r="L6" t="n">
-        <v>169.0363433314465</v>
+        <v>169.0363433314469</v>
       </c>
       <c r="M6" t="n">
-        <v>173.4035213848624</v>
+        <v>173.4035213848628</v>
       </c>
       <c r="N6" t="n">
-        <v>160.2368887416667</v>
+        <v>160.2368887416671</v>
       </c>
       <c r="O6" t="n">
-        <v>173.9674182222222</v>
+        <v>173.9674182222226</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>163.4487770454833</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8771,7 +8771,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>67.15086399372834</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -8780,7 +8780,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.67636752131759</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372859</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9020,13 +9020,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
-        <v>151.0001733008991</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.67636752131759</v>
+        <v>44.6763675213176</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,16 +9242,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K18" t="n">
-        <v>8.646382090491699</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>268.8276482817241</v>
+        <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
         <v>310.6138585746227</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.40936639976323</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K21" t="n">
-        <v>87.4484884945503</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131762</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9719,7 +9719,7 @@
         <v>61.40936639976321</v>
       </c>
       <c r="K24" t="n">
-        <v>8.646382090491727</v>
+        <v>87.4484884945505</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>123.478473925376</v>
+        <v>44.67636752131759</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9956,13 +9956,13 @@
         <v>61.40936639976321</v>
       </c>
       <c r="K27" t="n">
-        <v>8.646382090491699</v>
+        <v>87.4484884945505</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>289.1252727825457</v>
+        <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131759</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10193,7 +10193,7 @@
         <v>61.40936639976321</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455005</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10205,7 +10205,7 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>171.2977978017198</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455005</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10439,7 +10439,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>206.3912489841999</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10667,7 +10667,7 @@
         <v>61.40936639976321</v>
       </c>
       <c r="K36" t="n">
-        <v>87.4484884945505</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10682,7 +10682,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P36" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890782</v>
       </c>
       <c r="Q36" t="n">
         <v>44.67636752131759</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976321</v>
       </c>
       <c r="K39" t="n">
-        <v>67.15086399372879</v>
+        <v>87.4484884945505</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -11065,7 +11065,7 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286921</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
         <v>291.2847697033555</v>
@@ -11138,13 +11138,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K42" t="n">
-        <v>8.646382090491699</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L42" t="n">
-        <v>240.3045437566416</v>
+        <v>64.92584373552776</v>
       </c>
       <c r="M42" t="n">
         <v>301.77688131</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.1808494245549</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315041</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K45" t="n">
-        <v>8.646382090491699</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11390,13 +11390,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O45" t="n">
-        <v>222.2735498630456</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -22795,10 +22795,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.199249640013477</v>
+        <v>3.199249640013052</v>
       </c>
       <c r="G5" t="n">
-        <v>19.24489209461171</v>
+        <v>19.24489209461129</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>344.4221370639646</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>16.94861370149994</v>
       </c>
       <c r="U11" t="n">
         <v>250.0353723969745</v>
@@ -23320,7 +23320,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>86.52454094903572</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,19 +23387,19 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>244.0041632556752</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>24.58419038258743</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
@@ -23475,7 +23475,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>171.7556116853854</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>350.2054973811788</v>
@@ -23503,19 +23503,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>222.4399349862092</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>277.3210083733408</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
         <v>359.7827142947061</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>173.4205784779038</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>37.95933778888542</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>24.58419038258744</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213336334641</v>
+        <v>215.2679301343998</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>45.2599280469766</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>134.8285679884064</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23813,7 +23813,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -23825,13 +23825,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>120.4000150621765</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>184.1882356046049</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
-        <v>92.75407313483956</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
         <v>141.676141212225</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>215.2679301343996</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
         <v>290.3107070893353</v>
@@ -23974,16 +23974,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>94.36676081686193</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>141.8195587440391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>24.16622950718277</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>11.73001485123646</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.6169206649681</v>
+        <v>170.3900354539823</v>
       </c>
       <c r="C22" t="n">
         <v>166.4571809719723</v>
@@ -24144,13 +24144,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H22" t="n">
-        <v>155.7061618107483</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24189,7 +24189,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24217,16 +24217,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
-        <v>116.4615788439034</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>280.9695912153227</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>107.5159146505183</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>54.15722071333317</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -24372,7 +24372,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>134.4492560012393</v>
       </c>
       <c r="F25" t="n">
         <v>138.9268822184467</v>
@@ -24381,10 +24381,10 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I25" t="n">
-        <v>7.978571048150485</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
         <v>74.58429473553588</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706154</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24426,7 +24426,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>331.4444154842673</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>147.8309619043189</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
         <v>382.2855674184499</v>
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18.09485781262765</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>131.7968501188489</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24612,10 +24612,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0550137836253</v>
+        <v>9.444303701750897</v>
       </c>
       <c r="H28" t="n">
         <v>160.0829940331247</v>
@@ -24651,10 +24651,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
-        <v>147.6489937016423</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
         <v>288.6213336334641</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>173.2361215646702</v>
       </c>
       <c r="F29" t="n">
-        <v>295.2953004439509</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24745,10 +24745,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>64.19561720753242</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>98.52155165421166</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>237.1773944157285</v>
@@ -24821,7 +24821,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -24885,7 +24885,7 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R31" t="n">
-        <v>174.3941919203111</v>
+        <v>54.47352028495811</v>
       </c>
       <c r="S31" t="n">
         <v>224.1841888012565</v>
@@ -24894,7 +24894,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24903,7 +24903,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>213.0031967413856</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24922,7 +24922,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>138.3121683658973</v>
+        <v>81.40904308729307</v>
       </c>
       <c r="H32" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>7.214665362428121</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
         <v>80.84345120350706</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,16 +25052,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>97.29219807573622</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0023972007068</v>
+        <v>212.0861385338499</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25143,7 +25143,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
-        <v>143.7878693151039</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>362.6509886839261</v>
+        <v>91.86527764669836</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>417.3985592667085</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
@@ -25222,7 +25222,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -25280,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>97.29219807573622</v>
       </c>
       <c r="V36" t="n">
-        <v>65.61146546405402</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>12.19356269552921</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>160.0829940331247</v>
@@ -25362,10 +25362,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
-        <v>147.6489937016421</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213336334641</v>
@@ -25399,16 +25399,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>185.5090622027478</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>242.2353364065439</v>
+        <v>131.9171837651149</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
@@ -25472,13 +25472,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>244.0041632556747</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>36.2302505226925</v>
       </c>
     </row>
     <row r="40">
@@ -25569,7 +25569,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I40" t="n">
-        <v>145.433169315347</v>
+        <v>22.28976893533708</v>
       </c>
       <c r="J40" t="n">
         <v>74.58429473553588</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>174.1840844483079</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
         <v>221.0023972007068</v>
@@ -25633,19 +25633,19 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
-        <v>197.5230254864556</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
         <v>185.5090622027478</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>119.3167056202949</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -25709,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -25757,13 +25757,13 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>86.52454094903538</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>56.72050727433538</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25806,10 +25806,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I43" t="n">
-        <v>145.433169315347</v>
+        <v>136.5169106484901</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>237.8821299734639</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>193.0315229850047</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>156.8717495634258</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25949,16 +25949,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>67.24701790705171</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
         <v>118.2964226714636</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26009,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>33.34623354642312</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>15.78348183843663</v>
       </c>
       <c r="G46" t="n">
         <v>168.0550137836253</v>
@@ -26043,10 +26043,10 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
-        <v>68.89797421573277</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R46" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
         <v>288.6213336334641</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>597227.0608400422</v>
+        <v>597227.0608400421</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>597227.0608400421</v>
+        <v>597227.0608400422</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>597227.0608400423</v>
+        <v>597227.0608400422</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>597227.0608400421</v>
+        <v>597227.0608400422</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>597227.0608400422</v>
+        <v>597227.0608400421</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>551207.4969852873</v>
+        <v>551207.4969852874</v>
       </c>
       <c r="C2" t="n">
-        <v>551207.4969852875</v>
+        <v>551207.4969852874</v>
       </c>
       <c r="D2" t="n">
-        <v>551207.4969852871</v>
+        <v>551207.4969852872</v>
       </c>
       <c r="E2" t="n">
-        <v>313077.6564078295</v>
+        <v>313077.6564078293</v>
       </c>
       <c r="F2" t="n">
-        <v>313077.6564078296</v>
+        <v>313077.6564078294</v>
       </c>
       <c r="G2" t="n">
         <v>313077.6564078295</v>
       </c>
       <c r="H2" t="n">
-        <v>313077.6564078293</v>
+        <v>313077.6564078295</v>
       </c>
       <c r="I2" t="n">
-        <v>313077.6564078294</v>
+        <v>313077.6564078295</v>
       </c>
       <c r="J2" t="n">
-        <v>313077.6564078294</v>
+        <v>313077.6564078295</v>
       </c>
       <c r="K2" t="n">
         <v>313077.6564078294</v>
       </c>
       <c r="L2" t="n">
-        <v>313077.6564078295</v>
+        <v>313077.6564078294</v>
       </c>
       <c r="M2" t="n">
         <v>313077.6564078295</v>
       </c>
       <c r="N2" t="n">
-        <v>313077.6564078294</v>
+        <v>313077.6564078295</v>
       </c>
       <c r="O2" t="n">
         <v>313077.6564078293</v>
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.371691506689849e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174923</v>
+        <v>497053.1518174924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.372506196494215e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26459,7 +26459,7 @@
         <v>34009.01571095565</v>
       </c>
       <c r="P4" t="n">
-        <v>34009.01571095566</v>
+        <v>34009.01571095565</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33627.6</v>
+        <v>33627.60000000003</v>
       </c>
       <c r="D5" t="n">
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>36091.33751189045</v>
+      </c>
+      <c r="F5" t="n">
         <v>36091.33751189044</v>
       </c>
-      <c r="F5" t="n">
-        <v>36091.33751189046</v>
-      </c>
       <c r="G5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="H5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="K5" t="n">
         <v>36091.33751189044</v>
@@ -26502,7 +26502,7 @@
         <v>36091.33751189044</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189044</v>
       </c>
       <c r="N5" t="n">
         <v>36091.33751189045</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103211.2708184521</v>
+        <v>103166.6069764003</v>
       </c>
       <c r="C6" t="n">
-        <v>103211.2708184524</v>
+        <v>103166.6069764002</v>
       </c>
       <c r="D6" t="n">
-        <v>103211.2708184519</v>
+        <v>103166.6069764002</v>
       </c>
       <c r="E6" t="n">
-        <v>-254075.8486325089</v>
+        <v>-263645.7060976595</v>
       </c>
       <c r="F6" t="n">
-        <v>242977.3031849835</v>
+        <v>233407.4457198331</v>
       </c>
       <c r="G6" t="n">
-        <v>242977.3031849834</v>
+        <v>233407.4457198332</v>
       </c>
       <c r="H6" t="n">
-        <v>242977.3031849832</v>
+        <v>233407.4457198332</v>
       </c>
       <c r="I6" t="n">
-        <v>242977.3031849833</v>
+        <v>233407.4457198332</v>
       </c>
       <c r="J6" t="n">
-        <v>242977.3031849833</v>
+        <v>233407.4457198332</v>
       </c>
       <c r="K6" t="n">
-        <v>242977.3031849833</v>
+        <v>233407.4457198329</v>
       </c>
       <c r="L6" t="n">
-        <v>242977.3031849834</v>
+        <v>233407.4457198331</v>
       </c>
       <c r="M6" t="n">
-        <v>136085.4438107441</v>
+        <v>126515.5863455938</v>
       </c>
       <c r="N6" t="n">
-        <v>242977.3031849833</v>
+        <v>233407.4457198332</v>
       </c>
       <c r="O6" t="n">
-        <v>242977.3031849832</v>
+        <v>233407.445719833</v>
       </c>
       <c r="P6" t="n">
-        <v>242977.3031849834</v>
+        <v>233407.4457198332</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
         <v>459.2752909409235</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409234</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="I3" t="n">
         <v>459.2752909409235</v>
@@ -26776,10 +26776,10 @@
         <v>459.2752909409235</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -26801,7 +26801,7 @@
         <v>428.9331606805644</v>
       </c>
       <c r="F4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="G4" t="n">
         <v>428.9331606805644</v>
@@ -26810,10 +26810,10 @@
         <v>428.9331606805644</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="K4" t="n">
         <v>428.9331606805644</v>
@@ -26822,16 +26822,16 @@
         <v>428.9331606805644</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,7 +27014,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.332854886754435e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E5" t="n">
-        <v>371.4789120616362</v>
+        <v>371.4789120616344</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27645,7 +27645,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L5" t="n">
-        <v>16.99055923469257</v>
+        <v>16.99055923469214</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -27654,10 +27654,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>33.96130047619883</v>
+        <v>33.9613004761984</v>
       </c>
       <c r="P5" t="n">
-        <v>73.5786919263081</v>
+        <v>73.57869192630977</v>
       </c>
       <c r="Q5" t="n">
         <v>133.6328276992101</v>
@@ -27706,13 +27706,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F6" t="n">
-        <v>158.8234391199283</v>
+        <v>158.8234391199279</v>
       </c>
       <c r="G6" t="n">
         <v>148.9622183950918</v>
       </c>
       <c r="H6" t="n">
-        <v>127.8372169228968</v>
+        <v>127.8372169228963</v>
       </c>
       <c r="I6" t="n">
         <v>114.855819447717</v>
@@ -27742,7 +27742,7 @@
         <v>34.64768193211606</v>
       </c>
       <c r="R6" t="n">
-        <v>148.2309527983001</v>
+        <v>148.2309527982997</v>
       </c>
       <c r="S6" t="n">
         <v>195.63287444794</v>
@@ -27760,7 +27760,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X6" t="n">
-        <v>217.3129144394706</v>
+        <v>217.3129144394702</v>
       </c>
       <c r="Y6" t="n">
         <v>223.3842861340256</v>
@@ -27782,16 +27782,16 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E7" t="n">
-        <v>141.676141212225</v>
+        <v>141.6761412122254</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9268822184467</v>
+        <v>138.9268822184471</v>
       </c>
       <c r="G7" t="n">
-        <v>168.883215127945</v>
+        <v>168.8832151279454</v>
       </c>
       <c r="H7" t="n">
-        <v>167.4464568944399</v>
+        <v>167.4464568944403</v>
       </c>
       <c r="I7" t="n">
         <v>170.3394424699794</v>
@@ -27800,7 +27800,7 @@
         <v>133.1381297789385</v>
       </c>
       <c r="K7" t="n">
-        <v>88.2262143767183</v>
+        <v>88.22621437671873</v>
       </c>
       <c r="L7" t="n">
         <v>59.27569846418345</v>
@@ -31758,7 +31758,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J11" t="n">
         <v>156.7051908522501</v>
@@ -31767,10 +31767,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N11" t="n">
         <v>329.4457823148396</v>
@@ -31785,13 +31785,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R11" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T11" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H12" t="n">
         <v>9.54079425143315</v>
@@ -31840,7 +31840,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
@@ -31864,7 +31864,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
@@ -31873,7 +31873,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I13" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M13" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
         <v>126.7373929903044</v>
@@ -31952,7 +31952,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32001,7 +32001,7 @@
         <v>156.7051908522501</v>
       </c>
       <c r="K14" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L14" t="n">
         <v>291.3651677393358</v>
@@ -32010,7 +32010,7 @@
         <v>324.1998891675595</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O14" t="n">
         <v>311.086310257377</v>
@@ -32019,13 +32019,13 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R14" t="n">
         <v>115.979704500775</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584441</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T14" t="n">
         <v>8.0823219541463</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H15" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420991</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J15" t="n">
         <v>93.33253813357014</v>
       </c>
       <c r="K15" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L15" t="n">
         <v>214.4945592267021</v>
@@ -32089,13 +32089,13 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O15" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P15" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q15" t="n">
         <v>126.1013968636287</v>
@@ -32107,7 +32107,7 @@
         <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U15" t="n">
         <v>0.0649917864539043</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32174,19 +32174,19 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P16" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U16" t="n">
         <v>0.04517461878107449</v>
@@ -32232,7 +32232,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J17" t="n">
         <v>156.7051908522501</v>
@@ -32241,10 +32241,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N17" t="n">
         <v>329.4457823148396</v>
@@ -32259,13 +32259,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T17" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H18" t="n">
         <v>9.54079425143315</v>
@@ -32314,7 +32314,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
@@ -32338,7 +32338,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S18" t="n">
         <v>18.34934770881896</v>
@@ -32347,7 +32347,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M19" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
         <v>126.7373929903044</v>
@@ -32426,7 +32426,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.846332827903208</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
         <v>18.90875607376374</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773851</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J20" t="n">
         <v>156.7051908522501</v>
       </c>
       <c r="K20" t="n">
-        <v>234.8604594573929</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675594</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N20" t="n">
-        <v>329.4457823148395</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.0863102573769</v>
+        <v>311.086310257377</v>
       </c>
       <c r="P20" t="n">
         <v>265.5049685685165</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.3831741692327</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R20" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.0733093158444</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T20" t="n">
-        <v>8.082321954146298</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1477066262322566</v>
+        <v>0.1477066262322567</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993448</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H21" t="n">
-        <v>9.540794251433146</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I21" t="n">
-        <v>34.0123682442099</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357013</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K21" t="n">
-        <v>159.5201734582262</v>
+        <v>159.5201734582263</v>
       </c>
       <c r="L21" t="n">
         <v>214.4945592267021</v>
       </c>
       <c r="M21" t="n">
-        <v>250.3050335628032</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.9298629953379</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O21" t="n">
-        <v>235.0406293176629</v>
+        <v>235.040629317663</v>
       </c>
       <c r="P21" t="n">
-        <v>188.6408265753389</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q21" t="n">
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943127</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742533</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06499178645390428</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196978</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315138</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I22" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340264</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368851</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M22" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
         <v>126.7373929903044</v>
@@ -32648,22 +32648,22 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P22" t="n">
-        <v>100.1671880439023</v>
+        <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207943</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186568</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184163</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107448</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32712,7 +32712,7 @@
         <v>156.7051908522501</v>
       </c>
       <c r="K23" t="n">
-        <v>234.8604594573929</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
         <v>291.3651677393358</v>
@@ -32721,7 +32721,7 @@
         <v>324.1998891675595</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148395</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
         <v>311.086310257377</v>
@@ -32730,13 +32730,13 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692327</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
         <v>115.979704500775</v>
       </c>
       <c r="S23" t="n">
-        <v>42.0733093158444</v>
+        <v>42.07330931584441</v>
       </c>
       <c r="T23" t="n">
         <v>8.0823219541463</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993449</v>
+        <v>0.987875154099345</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433148</v>
+        <v>9.54079425143315</v>
       </c>
       <c r="I24" t="n">
-        <v>34.0123682442099</v>
+        <v>34.01236824420991</v>
       </c>
       <c r="J24" t="n">
         <v>93.33253813357014</v>
       </c>
       <c r="K24" t="n">
-        <v>159.5201734582262</v>
+        <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
         <v>214.4945592267021</v>
@@ -32800,13 +32800,13 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
-        <v>256.9298629953379</v>
+        <v>256.929862995338</v>
       </c>
       <c r="O24" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P24" t="n">
-        <v>188.6408265753389</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q24" t="n">
         <v>126.1013968636287</v>
@@ -32818,7 +32818,7 @@
         <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742533</v>
+        <v>3.981830116742534</v>
       </c>
       <c r="U24" t="n">
         <v>0.0649917864539043</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196979</v>
+        <v>0.8282013443196981</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315138</v>
+        <v>7.363462861315139</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340264</v>
+        <v>58.55383504340265</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368852</v>
+        <v>96.22193800368854</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32885,19 +32885,19 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P25" t="n">
-        <v>100.1671880439023</v>
+        <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207944</v>
+        <v>69.35056893207945</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186568</v>
+        <v>37.23894408186569</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184163</v>
+        <v>3.538678471184164</v>
       </c>
       <c r="U25" t="n">
         <v>0.04517461878107449</v>
@@ -34128,7 +34128,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J41" t="n">
         <v>156.7051908522501</v>
@@ -34137,10 +34137,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L41" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N41" t="n">
         <v>329.4457823148396</v>
@@ -34155,13 +34155,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R41" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S41" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T41" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U41" t="n">
         <v>0.1477066262322567</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H42" t="n">
         <v>9.54079425143315</v>
@@ -34210,7 +34210,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J42" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
@@ -34234,7 +34234,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R42" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S42" t="n">
         <v>18.34934770881896</v>
@@ -34243,7 +34243,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H43" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I43" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K43" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L43" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M43" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N43" t="n">
         <v>126.7373929903044</v>
@@ -34322,7 +34322,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J44" t="n">
         <v>156.7051908522501</v>
@@ -34374,10 +34374,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L44" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N44" t="n">
         <v>329.4457823148396</v>
@@ -34392,13 +34392,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R44" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S44" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T44" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U44" t="n">
         <v>0.1477066262322567</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H45" t="n">
         <v>9.54079425143315</v>
@@ -34447,7 +34447,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J45" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
@@ -34471,7 +34471,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R45" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S45" t="n">
         <v>18.34934770881896</v>
@@ -34480,7 +34480,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H46" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I46" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K46" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L46" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M46" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N46" t="n">
         <v>126.7373929903044</v>
@@ -34559,7 +34559,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34920,7 +34920,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-1.71547223130531e-12</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35078,16 +35078,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.245793772480642e-13</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
@@ -35418,7 +35418,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M11" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N11" t="n">
         <v>332.9626517459644</v>
@@ -35430,7 +35430,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082171</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K12" t="n">
-        <v>58.50448190323664</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
         <v>285.7627596518971</v>
@@ -35500,7 +35500,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063586</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M13" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P13" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>45.40379396119663</v>
       </c>
       <c r="K14" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L14" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O14" t="n">
         <v>277.1250097811782</v>
@@ -35667,7 +35667,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>20.29762450082171</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323686</v>
       </c>
       <c r="L15" t="n">
         <v>285.7627596518971</v>
@@ -35740,10 +35740,10 @@
         <v>407.306832828294</v>
       </c>
       <c r="O15" t="n">
-        <v>212.0733843963399</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P15" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M16" t="n">
         <v>76.00912912692037</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P16" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
@@ -35892,7 +35892,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
         <v>332.9626517459644</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M18" t="n">
-        <v>345.729160459665</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N18" t="n">
         <v>407.306832828294</v>
@@ -35983,7 +35983,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151262</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P19" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.4037939611966</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046432</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336422</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811781</v>
+        <v>277.1250097811782</v>
       </c>
       <c r="P20" t="n">
         <v>191.9262766422084</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002258</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>78.80210640405859</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
@@ -36214,10 +36214,10 @@
         <v>407.306832828294</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2959939867615</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
-        <v>231.5559236085353</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970204</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L22" t="n">
-        <v>63.8552541267651</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M22" t="n">
-        <v>76.00912912692034</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793114</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186791</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144087</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>45.40379396119663</v>
       </c>
       <c r="K23" t="n">
-        <v>176.3970685286314</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M23" t="n">
-        <v>334.4622543336422</v>
+        <v>334.4622543336423</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
         <v>277.1250097811782</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002261</v>
+        <v>65.75034647002263</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>78.8021064040588</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518971</v>
@@ -36451,13 +36451,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867615</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>231.5559236085353</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.80210640405838</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970218</v>
+        <v>7.995723626970232</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676512</v>
+        <v>63.85525412676513</v>
       </c>
       <c r="M25" t="n">
         <v>76.00912912692037</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793116</v>
+        <v>82.29890925793117</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186792</v>
+        <v>53.79651836186794</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144089</v>
+        <v>19.6232761314409</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>78.8021064040588</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M27" t="n">
-        <v>366.0267849604867</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N27" t="n">
         <v>407.306832828294</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151262</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405835</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
@@ -36925,7 +36925,7 @@
         <v>407.306832828294</v>
       </c>
       <c r="O30" t="n">
-        <v>232.3710088971606</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405835</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518971</v>
@@ -37159,7 +37159,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N33" t="n">
-        <v>303.0842232378713</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O33" t="n">
         <v>316.2959939867616</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>78.8021064040588</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518971</v>
@@ -37402,7 +37402,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189343</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>58.50448190323709</v>
+        <v>78.8021064040588</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518971</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046433</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
         <v>332.9626517459644</v>
@@ -37800,7 +37800,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
-        <v>285.7627596518971</v>
+        <v>110.3840596307834</v>
       </c>
       <c r="M42" t="n">
         <v>378.6783934879409</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.50448190323728</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L43" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M43" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O43" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P43" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119689</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38025,7 +38025,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M44" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
         <v>332.9626517459644</v>
@@ -38037,7 +38037,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518971</v>
@@ -38110,13 +38110,13 @@
         <v>407.306832828294</v>
       </c>
       <c r="O45" t="n">
-        <v>283.3467609584864</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P45" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.45371493151262</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L46" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M46" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O46" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P46" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
